--- a/medicine/Enfance/Jens_Christian_Grøndahl/Jens_Christian_Grøndahl.xlsx
+++ b/medicine/Enfance/Jens_Christian_Grøndahl/Jens_Christian_Grøndahl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jens_Christian_Gr%C3%B8ndahl</t>
+          <t>Jens_Christian_Grøndahl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jens Christian Grøndahl, né le 9 novembre 1959, est un écrivain danois de renommée internationale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jens_Christian_Gr%C3%B8ndahl</t>
+          <t>Jens_Christian_Grøndahl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Débuts littéraires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jens Christian Grøndahl étudie la philosophie de 1977 à 1979 et commence à écrire en 1985.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jens_Christian_Gr%C3%B8ndahl</t>
+          <t>Jens_Christian_Grøndahl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Carrière littéraire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Auteur de romans, il a également écrit divers essais, deux ouvrages de littérature d'enfance et de jeunesse et des pièces pour le théâtre et la radio.
 Grande figure de la prose danoise, il est lauréat de prestigieux prix danois De Gyldne Laurbær en 1998; prix Søren Gyldendal en 2007 et compte de nombreux lecteurs à l’étranger où ses livres paraissent dans 35 langues. 
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jens_Christian_Gr%C3%B8ndahl</t>
+          <t>Jens_Christian_Grøndahl</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,8 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Romans
-1985 : Kvinden i midten
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1985 : Kvinden i midten
 1986 : Syd for floden
 1988 : Rejsens bevægelser
 1990 : Det indre blik
@@ -599,16 +620,152 @@
 2012 : Før vi siger farvel Publié en français sous le titre Les Complémentaires, traduit par Alain Gnaedig, Paris, Gallimard, coll. « Du monde entier », 2013  (ISBN 978-2-07-013498-4) ; réédition, Paris, Gallimard, coll. « Folio » no 5888, 2015  (ISBN 978-2-07-046246-9)
 2013 : Det godes pris (sous le pseudonyme de Christian Tornbakke)
 2014 : Jernporten Publié en français sous le titre Les Portes de fer, traduit par Alain Gnaedig, Paris, Gallimard, coll. « Du monde entier », 2015  (ISBN 978-2-07-014932-2) ; réédition, Paris, Gallimard, coll. « Folio » no 6391, 2017  (ISBN 978-2-07-271027-8)
-2016 : Tit er jeg glad Publié en français sous le titre Quelle n'est pas ma joie, traduit par Alain Gnaedig, Paris, Gallimard, coll. « Du monde entier », 2018  (ISBN 978-2-07-268949-9)
-Recueil de novellas
-2020 : Dage som græs Publié en français sous le titre Les jours sont comme l'herbe, traduit par Alain Gnaedig, Paris, Gallimard, coll. « Du monde entier », 2023  (ISBN 978-2-07-292941-0)
-Ouvrages de littérature d'enfance et de jeunesse
-2008 : Den tid det tager Publié en français sous le titre Passages de jeunesse, traduit par Alain Gnaedig, Paris, Mercure de France, coll. « Traits et portraits », 2010  (ISBN 978-2-7152-2940-2)
-2013 : Med bedstemor i tidens labyrintPublié en français sous le titre Où est partie Nina ?, traduit par Alain Gnaedig, illustré par Claire de Gastold, Paris, Gallimard, coll. « Folio cadet. Premiers romans » no 614, 2014  (ISBN 978-2-07-065618-9)
-Théâtre
-1999 : Hvor var vi lykkelige &amp; De sorte skove
-Essais
-1999 : Sekundernes ensomhed
+2016 : Tit er jeg glad Publié en français sous le titre Quelle n'est pas ma joie, traduit par Alain Gnaedig, Paris, Gallimard, coll. « Du monde entier », 2018  (ISBN 978-2-07-268949-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jens_Christian_Grøndahl</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jens_Christian_Gr%C3%B8ndahl</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueil de novellas</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2020 : Dage som græs Publié en français sous le titre Les jours sont comme l'herbe, traduit par Alain Gnaedig, Paris, Gallimard, coll. « Du monde entier », 2023  (ISBN 978-2-07-292941-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jens_Christian_Grøndahl</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jens_Christian_Gr%C3%B8ndahl</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2008 : Den tid det tager Publié en français sous le titre Passages de jeunesse, traduit par Alain Gnaedig, Paris, Mercure de France, coll. « Traits et portraits », 2010  (ISBN 978-2-7152-2940-2)
+2013 : Med bedstemor i tidens labyrintPublié en français sous le titre Où est partie Nina ?, traduit par Alain Gnaedig, illustré par Claire de Gastold, Paris, Gallimard, coll. « Folio cadet. Premiers romans » no 614, 2014  (ISBN 978-2-07-065618-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jens_Christian_Grøndahl</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jens_Christian_Gr%C3%B8ndahl</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1999 : Hvor var vi lykkelige &amp; De sorte skove</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jens_Christian_Grøndahl</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jens_Christian_Gr%C3%B8ndahl</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1999 : Sekundernes ensomhed
 1995 : Ved flodens munding
 1998 : Night Mail
 2005 : Sihaya ti amo. Et essay om Seppo Mattinen og hans Rom
@@ -619,43 +776,124 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jens_Christian_Gr%C3%B8ndahl</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jens_Christian_Gr%C3%B8ndahl</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jens_Christian_Grøndahl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jens_Christian_Gr%C3%B8ndahl</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix
-Nommé
-En France, ses ouvrages ont été nommés pour le prix Médicis étranger (Virginia, Sous un autre jour) et le prix Femina étranger (Sous un autre jour).
-Lauréat
-1998 : De Gyldne Laurbær (en)
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Nommé</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, ses ouvrages ont été nommés pour le prix Médicis étranger (Virginia, Sous un autre jour) et le prix Femina étranger (Sous un autre jour).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jens_Christian_Grøndahl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jens_Christian_Gr%C3%B8ndahl</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Lauréat</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1998 : De Gyldne Laurbær (en)
 2003 : prix littéraire des Ambassadeurs de la francophonie au Danemark pour Bruits du cœur (Hjertelyd)
 2006 : prix de l'International IMPAC Dublin Literary Award pour Sous un autre jour (Et Andet Lys)
 2007 : prix Jean-Monnet des Littératures européennes de Cognac pour Piazza Bucarest
-2007 : prix Søren Gyldendal (en)
-Distinction
-2009 : chevalier de l'ordre des Arts et des Lettres</t>
+2007 : prix Søren Gyldendal (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jens_Christian_Grøndahl</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jens_Christian_Gr%C3%B8ndahl</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Distinction</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2009 : chevalier de l'ordre des Arts et des Lettres</t>
         </is>
       </c>
     </row>
